--- a/biology/Zoologie/Drepanosaurus/Drepanosaurus.xlsx
+++ b/biology/Zoologie/Drepanosaurus/Drepanosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Drepanosaurus est un genre fossile de reptiles arboricoles qui ont vécu pendant le Trias. Il n'est connu que par son espèce type, Drepanosaurus unguicaudatus.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Drepanosaurus est un Drepanosauridae, un groupe de reptiles diapsides connus pour leurs queues préhensiles. Un seul spécimen de Drepanosaurus adulte et deux spécimens immatures ont déjà été trouvés et tous manquaient de tête et de cou. Drepanosaurus était probablement un insectivore et vivait dans un environnement côtier dans ce qui est aujourd'hui l'Italie moderne, ainsi que dans un environnement fluvial dans le Midwest des États-Unis.[réf. nécessaire]
 </t>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Drepanosaurus et l'espèce Drepanosaurus unguicaudatus ont été décrits en 1980 par le paléontologue italien Giovanni Pinna (d)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Drepanosaurus et l'espèce Drepanosaurus unguicaudatus ont été décrits en 1980 par le paléontologue italien Giovanni Pinna (d).
 </t>
         </is>
       </c>
